--- a/src/test/resources/package2/Class3TestData.xlsx
+++ b/src/test/resources/package2/Class3TestData.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Constructors" r:id="rId3" sheetId="1"/>
-    <sheet name="getIsValue" r:id="rId4" sheetId="2"/>
-    <sheet name="getM3boolean" r:id="rId5" sheetId="3"/>
+    <sheet name="getisValue" r:id="rId4" sheetId="2"/>
+    <sheet name="getm3boolean" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -22,13 +22,13 @@
     <t>getClass3BooleanParameter0</t>
   </si>
   <si>
-    <t>getIsValueResult</t>
+    <t>getisValueResult</t>
   </si>
   <si>
-    <t>getM3booleanParameter0</t>
+    <t>getm3booleanParameter0</t>
   </si>
   <si>
-    <t>getM3booleanResult</t>
+    <t>getm3booleanResult</t>
   </si>
 </sst>
 </file>
